--- a/data/pca/factorExposure/factorExposure_2009-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01719841266982275</v>
+        <v>0.01696213287709566</v>
       </c>
       <c r="C2">
-        <v>0.001488286179777551</v>
+        <v>-0.0009288938097049154</v>
       </c>
       <c r="D2">
-        <v>-0.001107081328557924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008566931965075996</v>
+      </c>
+      <c r="E2">
+        <v>-0.001663319746518326</v>
+      </c>
+      <c r="F2">
+        <v>-0.01245261039552541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09995366106192359</v>
+        <v>0.09378723525858713</v>
       </c>
       <c r="C4">
-        <v>0.01998617343732846</v>
+        <v>-0.01450437366528222</v>
       </c>
       <c r="D4">
-        <v>0.06878959562356254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08379918524292636</v>
+      </c>
+      <c r="E4">
+        <v>-0.0284909553833059</v>
+      </c>
+      <c r="F4">
+        <v>0.03205633774664038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.13452535024674</v>
+        <v>0.1588083603715063</v>
       </c>
       <c r="C6">
-        <v>0.0256510305096528</v>
+        <v>-0.02637004413290018</v>
       </c>
       <c r="D6">
-        <v>-0.01393119721977444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02306215245794089</v>
+      </c>
+      <c r="E6">
+        <v>-0.0102841901400135</v>
+      </c>
+      <c r="F6">
+        <v>0.04392970502449348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06918467935042096</v>
+        <v>0.06354864340177149</v>
       </c>
       <c r="C7">
-        <v>0.002454374517950232</v>
+        <v>0.001654010921834796</v>
       </c>
       <c r="D7">
-        <v>0.03387293172866764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05247403260364696</v>
+      </c>
+      <c r="E7">
+        <v>-0.01172596415601602</v>
+      </c>
+      <c r="F7">
+        <v>0.04761387288550516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06440259461227546</v>
+        <v>0.05731651790949764</v>
       </c>
       <c r="C8">
-        <v>-0.01091587625875149</v>
+        <v>0.01337913237340491</v>
       </c>
       <c r="D8">
-        <v>0.01559585596940333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0323528453173214</v>
+      </c>
+      <c r="E8">
+        <v>-0.01757549734057236</v>
+      </c>
+      <c r="F8">
+        <v>-0.02711227515858546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07751120772849168</v>
+        <v>0.07092690663473199</v>
       </c>
       <c r="C9">
-        <v>0.01701344087054055</v>
+        <v>-0.01022127609147586</v>
       </c>
       <c r="D9">
-        <v>0.06672418242437983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08702908911119964</v>
+      </c>
+      <c r="E9">
+        <v>-0.02330120929988383</v>
+      </c>
+      <c r="F9">
+        <v>0.04799301713485302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08396452118684043</v>
+        <v>0.09194608563027834</v>
       </c>
       <c r="C10">
-        <v>0.008288985171029658</v>
+        <v>-0.02100033137036686</v>
       </c>
       <c r="D10">
-        <v>-0.1701170137423062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1647750808799078</v>
+      </c>
+      <c r="E10">
+        <v>0.03245777298434801</v>
+      </c>
+      <c r="F10">
+        <v>-0.05505271986112861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09478208820481782</v>
+        <v>0.08810142357476315</v>
       </c>
       <c r="C11">
-        <v>0.01700589303287446</v>
+        <v>-0.01023799553163162</v>
       </c>
       <c r="D11">
-        <v>0.09694666135394746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170031519101189</v>
+      </c>
+      <c r="E11">
+        <v>-0.04593741443005445</v>
+      </c>
+      <c r="F11">
+        <v>0.02314415987089207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1013635932676279</v>
+        <v>0.09218290407389626</v>
       </c>
       <c r="C12">
-        <v>0.01537554095524552</v>
+        <v>-0.007641940501636666</v>
       </c>
       <c r="D12">
-        <v>0.09459475442939748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319965411182875</v>
+      </c>
+      <c r="E12">
+        <v>-0.0462152315882622</v>
+      </c>
+      <c r="F12">
+        <v>0.02911051026651433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04149813738903197</v>
+        <v>0.04151374354011528</v>
       </c>
       <c r="C13">
-        <v>0.005949414457784465</v>
+        <v>-0.002327456471652317</v>
       </c>
       <c r="D13">
-        <v>0.03536184976955051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0541462203192284</v>
+      </c>
+      <c r="E13">
+        <v>0.004502067439013468</v>
+      </c>
+      <c r="F13">
+        <v>0.002118008400603763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02272247414921924</v>
+        <v>0.0241312033781879</v>
       </c>
       <c r="C14">
-        <v>0.01508282163842807</v>
+        <v>-0.01381979229684694</v>
       </c>
       <c r="D14">
-        <v>0.01910074450914886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03276338836272649</v>
+      </c>
+      <c r="E14">
+        <v>-0.01860442840680193</v>
+      </c>
+      <c r="F14">
+        <v>0.01370910824789008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03587075923738531</v>
+        <v>0.03271181520486295</v>
       </c>
       <c r="C15">
-        <v>0.007739688237332694</v>
+        <v>-0.004563004307887979</v>
       </c>
       <c r="D15">
-        <v>0.02414131986247705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04481345179459977</v>
+      </c>
+      <c r="E15">
+        <v>-0.005812780119818119</v>
+      </c>
+      <c r="F15">
+        <v>0.02469049297688919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07920061281263918</v>
+        <v>0.07428800706428493</v>
       </c>
       <c r="C16">
-        <v>0.008837323627692061</v>
+        <v>-0.000836742741190447</v>
       </c>
       <c r="D16">
-        <v>0.09653683801356185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277193218569812</v>
+      </c>
+      <c r="E16">
+        <v>-0.06077104551729539</v>
+      </c>
+      <c r="F16">
+        <v>0.0271018595190892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000627355451167041</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001779392334181276</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001157550341982737</v>
+      </c>
+      <c r="E17">
+        <v>-0.0007702219072292296</v>
+      </c>
+      <c r="F17">
+        <v>-0.001114937076712766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003356094517234183</v>
+        <v>0.036227876820998</v>
       </c>
       <c r="C18">
-        <v>-0.000933879536683178</v>
+        <v>0.003012221394493366</v>
       </c>
       <c r="D18">
-        <v>0.003691035019958516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01599588489310869</v>
+      </c>
+      <c r="E18">
+        <v>0.009055056657130012</v>
+      </c>
+      <c r="F18">
+        <v>-0.009368081255530136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06282216199817488</v>
+        <v>0.06164701488751584</v>
       </c>
       <c r="C20">
-        <v>0.006506173540250018</v>
+        <v>6.930375480395135e-05</v>
       </c>
       <c r="D20">
-        <v>0.03986961331163865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07808324114068302</v>
+      </c>
+      <c r="E20">
+        <v>-0.05604360555280848</v>
+      </c>
+      <c r="F20">
+        <v>0.02587281464283219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04616809796224996</v>
+        <v>0.04055841764057436</v>
       </c>
       <c r="C21">
-        <v>0.009729902857337864</v>
+        <v>-0.006369574197691749</v>
       </c>
       <c r="D21">
-        <v>0.01137049426841407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03780281909301217</v>
+      </c>
+      <c r="E21">
+        <v>0.001971756195599824</v>
+      </c>
+      <c r="F21">
+        <v>-0.02459557034722285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03617647563278219</v>
+        <v>0.04310077255843883</v>
       </c>
       <c r="C22">
-        <v>0.0004461701245098132</v>
+        <v>-0.0003732553865171234</v>
       </c>
       <c r="D22">
-        <v>-0.01376734765180061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006832354849041072</v>
+      </c>
+      <c r="E22">
+        <v>-0.03515466634456724</v>
+      </c>
+      <c r="F22">
+        <v>-0.03676225440922355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03613494950038536</v>
+        <v>0.04307656978648612</v>
       </c>
       <c r="C23">
-        <v>0.0004381029001675169</v>
+        <v>-0.0003648319320667835</v>
       </c>
       <c r="D23">
-        <v>-0.01374425376928394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006847874892357472</v>
+      </c>
+      <c r="E23">
+        <v>-0.03533720044060914</v>
+      </c>
+      <c r="F23">
+        <v>-0.03672417660967623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08537138328050865</v>
+        <v>0.07979515105672343</v>
       </c>
       <c r="C24">
-        <v>0.008797353387164012</v>
+        <v>-0.001432241761842898</v>
       </c>
       <c r="D24">
-        <v>0.104333881508611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1215310896280934</v>
+      </c>
+      <c r="E24">
+        <v>-0.04872191772694464</v>
+      </c>
+      <c r="F24">
+        <v>0.02740638326304402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0934425623063391</v>
+        <v>0.08534699124209427</v>
       </c>
       <c r="C25">
-        <v>0.01071912941442209</v>
+        <v>-0.004216015855537196</v>
       </c>
       <c r="D25">
-        <v>0.08819226169124564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096767730452585</v>
+      </c>
+      <c r="E25">
+        <v>-0.03220010283796514</v>
+      </c>
+      <c r="F25">
+        <v>0.02744836525960162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05959213216339479</v>
+        <v>0.0589579873728581</v>
       </c>
       <c r="C26">
-        <v>0.01769201643010461</v>
+        <v>-0.01429570089644744</v>
       </c>
       <c r="D26">
-        <v>0.01236983539190236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0409137530203886</v>
+      </c>
+      <c r="E26">
+        <v>-0.02853124394934926</v>
+      </c>
+      <c r="F26">
+        <v>-0.006932933992307649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1340112186639751</v>
+        <v>0.1423304560650207</v>
       </c>
       <c r="C28">
-        <v>0.003670486797725464</v>
+        <v>-0.02226931720818963</v>
       </c>
       <c r="D28">
-        <v>-0.2769332611989637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611966898205504</v>
+      </c>
+      <c r="E28">
+        <v>0.06698208263162643</v>
+      </c>
+      <c r="F28">
+        <v>0.007382663947714386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02717157757602897</v>
+        <v>0.02868761138124777</v>
       </c>
       <c r="C29">
-        <v>0.009836611389602125</v>
+        <v>-0.008682882240284415</v>
       </c>
       <c r="D29">
-        <v>0.01625189123706242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03115518210433878</v>
+      </c>
+      <c r="E29">
+        <v>-0.01386587827670796</v>
+      </c>
+      <c r="F29">
+        <v>-0.01320440596000279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06966466466799855</v>
+        <v>0.05888535325033247</v>
       </c>
       <c r="C30">
-        <v>0.009560043343249409</v>
+        <v>-0.002452179572983533</v>
       </c>
       <c r="D30">
-        <v>0.07678773933063968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08968838400021034</v>
+      </c>
+      <c r="E30">
+        <v>-0.01556948257842005</v>
+      </c>
+      <c r="F30">
+        <v>0.07841457412306456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05255447082286923</v>
+        <v>0.05091928329917154</v>
       </c>
       <c r="C31">
-        <v>0.01604542943252989</v>
+        <v>-0.01534209512038766</v>
       </c>
       <c r="D31">
-        <v>0.01954689926515299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0250281233516915</v>
+      </c>
+      <c r="E31">
+        <v>-0.02860806742394292</v>
+      </c>
+      <c r="F31">
+        <v>-0.001464913008623416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04639470407960176</v>
+        <v>0.05106321633301143</v>
       </c>
       <c r="C32">
-        <v>0.001260336345372514</v>
+        <v>0.002034721122832085</v>
       </c>
       <c r="D32">
-        <v>0.02054254085010486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03668928034805093</v>
+      </c>
+      <c r="E32">
+        <v>-0.03411868795545325</v>
+      </c>
+      <c r="F32">
+        <v>0.003549068920998818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09828535640447582</v>
+        <v>0.08903764098679995</v>
       </c>
       <c r="C33">
-        <v>0.01330414531695977</v>
+        <v>-0.006644411916438286</v>
       </c>
       <c r="D33">
-        <v>0.07925094744742343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1013494555647827</v>
+      </c>
+      <c r="E33">
+        <v>-0.04331898451291729</v>
+      </c>
+      <c r="F33">
+        <v>0.03796640431230613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07669221206643263</v>
+        <v>0.06780297770375364</v>
       </c>
       <c r="C34">
-        <v>0.01542958070423124</v>
+        <v>-0.00992844639448218</v>
       </c>
       <c r="D34">
-        <v>0.08853479312652403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109623632305141</v>
+      </c>
+      <c r="E34">
+        <v>-0.03435317866327802</v>
+      </c>
+      <c r="F34">
+        <v>0.03394377078505272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02286006222831125</v>
+        <v>0.02508031671319844</v>
       </c>
       <c r="C35">
-        <v>0.002446833961232711</v>
+        <v>-0.00248915175792672</v>
       </c>
       <c r="D35">
-        <v>0.00391757280015622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01142661070082865</v>
+      </c>
+      <c r="E35">
+        <v>-0.0117016473555434</v>
+      </c>
+      <c r="F35">
+        <v>0.001012712567241638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01939338799605163</v>
+        <v>0.02759563732362244</v>
       </c>
       <c r="C36">
-        <v>0.009180639760105955</v>
+        <v>-0.006790749512660098</v>
       </c>
       <c r="D36">
-        <v>0.02789347147159458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03996721844156351</v>
+      </c>
+      <c r="E36">
+        <v>-0.01658816653410801</v>
+      </c>
+      <c r="F36">
+        <v>0.01577207147875173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0005997113812302305</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005978854113479797</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001859887061256006</v>
+      </c>
+      <c r="E37">
+        <v>0.001476071742971017</v>
+      </c>
+      <c r="F37">
+        <v>0.0001622570421350084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007719765690386236</v>
+        <v>-0.0004610657416237767</v>
       </c>
       <c r="C38">
-        <v>-5.681943401530801e-05</v>
+        <v>0.0001206722665532304</v>
       </c>
       <c r="D38">
-        <v>0.0004215259812925926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-5.45309768645839e-05</v>
+      </c>
+      <c r="E38">
+        <v>0.0008301665297144372</v>
+      </c>
+      <c r="F38">
+        <v>0.0002477342039968646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1254559442470333</v>
+        <v>0.1042008877213526</v>
       </c>
       <c r="C39">
-        <v>0.02363418813397639</v>
+        <v>-0.0153561482875782</v>
       </c>
       <c r="D39">
-        <v>0.1427404660424391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1551576418778376</v>
+      </c>
+      <c r="E39">
+        <v>-0.05970777760769332</v>
+      </c>
+      <c r="F39">
+        <v>0.02997347995938844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03366796216153964</v>
+        <v>0.04137514192413911</v>
       </c>
       <c r="C40">
-        <v>0.009691100358435061</v>
+        <v>-0.007034583526837698</v>
       </c>
       <c r="D40">
-        <v>-0.006967107672930648</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03056510025980408</v>
+      </c>
+      <c r="E40">
+        <v>-0.001670855884192159</v>
+      </c>
+      <c r="F40">
+        <v>-0.01536537802295524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02595691579248547</v>
+        <v>0.02798495226502198</v>
       </c>
       <c r="C41">
-        <v>0.007211132359964604</v>
+        <v>-0.006873903089083587</v>
       </c>
       <c r="D41">
-        <v>0.006919337285949334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01099111025076734</v>
+      </c>
+      <c r="E41">
+        <v>-0.012402823970829</v>
+      </c>
+      <c r="F41">
+        <v>-0.005735981028758352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03966827314584625</v>
+        <v>0.04074534451432454</v>
       </c>
       <c r="C43">
-        <v>0.008163866720879546</v>
+        <v>-0.00703604854313272</v>
       </c>
       <c r="D43">
-        <v>0.008050694796701324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01893829643172778</v>
+      </c>
+      <c r="E43">
+        <v>-0.02527224615292923</v>
+      </c>
+      <c r="F43">
+        <v>-0.01220530318436274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08283653428272249</v>
+        <v>0.07918311070397868</v>
       </c>
       <c r="C44">
-        <v>0.02677297939303106</v>
+        <v>-0.01913551567941666</v>
       </c>
       <c r="D44">
-        <v>0.07038461973088748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09785425162508876</v>
+      </c>
+      <c r="E44">
+        <v>-0.06154441287151034</v>
+      </c>
+      <c r="F44">
+        <v>0.1560508032817467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01815891985861803</v>
+        <v>0.0233999073676542</v>
       </c>
       <c r="C46">
-        <v>0.003952111197603098</v>
+        <v>-0.003256644964496055</v>
       </c>
       <c r="D46">
-        <v>-0.0008643762867305606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01356354701440638</v>
+      </c>
+      <c r="E46">
+        <v>-0.02638949391559596</v>
+      </c>
+      <c r="F46">
+        <v>-0.005839957965074112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0532043610199333</v>
+        <v>0.05255975796861379</v>
       </c>
       <c r="C47">
-        <v>0.003691221673614179</v>
+        <v>-0.003496378111798679</v>
       </c>
       <c r="D47">
-        <v>0.003742357006495141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01293955872920089</v>
+      </c>
+      <c r="E47">
+        <v>-0.02335701948808111</v>
+      </c>
+      <c r="F47">
+        <v>-0.0318224228352628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04696584188116555</v>
+        <v>0.0502834426866054</v>
       </c>
       <c r="C48">
-        <v>0.005544656690924182</v>
+        <v>-0.002112666393591826</v>
       </c>
       <c r="D48">
-        <v>0.03758570941781485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05050619476602081</v>
+      </c>
+      <c r="E48">
+        <v>0.004793753006574034</v>
+      </c>
+      <c r="F48">
+        <v>0.01009257092844777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.201208025464171</v>
+        <v>0.2002727169159053</v>
       </c>
       <c r="C49">
-        <v>0.01610004850333413</v>
+        <v>-0.01883153555040478</v>
       </c>
       <c r="D49">
-        <v>-0.008226149017707648</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006621805597294732</v>
+      </c>
+      <c r="E49">
+        <v>-0.03091450191633522</v>
+      </c>
+      <c r="F49">
+        <v>0.03724229916641391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05243477811012343</v>
+        <v>0.05124608447740951</v>
       </c>
       <c r="C50">
-        <v>0.01215797568025301</v>
+        <v>-0.01108095705649236</v>
       </c>
       <c r="D50">
-        <v>0.01897544491019619</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02473201581732836</v>
+      </c>
+      <c r="E50">
+        <v>-0.03005191634891417</v>
+      </c>
+      <c r="F50">
+        <v>0.009725053574439518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1587148769346117</v>
+        <v>0.1482599181176629</v>
       </c>
       <c r="C52">
-        <v>0.01611148746033196</v>
+        <v>-0.0170479938094056</v>
       </c>
       <c r="D52">
-        <v>0.0576477480546197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04259245596099858</v>
+      </c>
+      <c r="E52">
+        <v>-0.02028299562341722</v>
+      </c>
+      <c r="F52">
+        <v>0.04375495668773707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.170130878143396</v>
+        <v>0.1712474530534706</v>
       </c>
       <c r="C53">
-        <v>0.01547352118980884</v>
+        <v>-0.01961780221095664</v>
       </c>
       <c r="D53">
-        <v>0.02604952453958438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005022649074799073</v>
+      </c>
+      <c r="E53">
+        <v>-0.02838083104306303</v>
+      </c>
+      <c r="F53">
+        <v>0.07484714548577172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02248064364333455</v>
+        <v>0.0208974321020016</v>
       </c>
       <c r="C54">
-        <v>0.01258206653889276</v>
+        <v>-0.01132013200383115</v>
       </c>
       <c r="D54">
-        <v>0.02231823803298256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03430848476197098</v>
+      </c>
+      <c r="E54">
+        <v>-0.02174503146541882</v>
+      </c>
+      <c r="F54">
+        <v>-0.004692018926345928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1189977006977728</v>
+        <v>0.1146452565634457</v>
       </c>
       <c r="C55">
-        <v>0.01440653682260098</v>
+        <v>-0.01738023479594163</v>
       </c>
       <c r="D55">
-        <v>0.02066249440402259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007536646261530947</v>
+      </c>
+      <c r="E55">
+        <v>-0.02386196766965577</v>
+      </c>
+      <c r="F55">
+        <v>0.04753709513146277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1758738730677216</v>
+        <v>0.1770701698730074</v>
       </c>
       <c r="C56">
-        <v>0.01345870780314385</v>
+        <v>-0.01752750869193801</v>
       </c>
       <c r="D56">
-        <v>0.005841936122884205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001861380650244948</v>
+      </c>
+      <c r="E56">
+        <v>-0.03370217845950404</v>
+      </c>
+      <c r="F56">
+        <v>0.05236900309530048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04329292407519229</v>
+        <v>0.04476435101887771</v>
       </c>
       <c r="C58">
-        <v>0.00664446083214023</v>
+        <v>0.000513637150271847</v>
       </c>
       <c r="D58">
-        <v>0.04681503614393515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07191146100008748</v>
+      </c>
+      <c r="E58">
+        <v>-0.03256700542680653</v>
+      </c>
+      <c r="F58">
+        <v>-0.03937327206806771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1661493525662258</v>
+        <v>0.1679170888492695</v>
       </c>
       <c r="C59">
-        <v>0.004713125036181202</v>
+        <v>-0.02236079568051326</v>
       </c>
       <c r="D59">
-        <v>-0.2253424678792571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169580760621471</v>
+      </c>
+      <c r="E59">
+        <v>0.0459256034329102</v>
+      </c>
+      <c r="F59">
+        <v>-0.03575344920621625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2436899961381534</v>
+        <v>0.2318917472671023</v>
       </c>
       <c r="C60">
-        <v>-0.004434224057976333</v>
+        <v>0.002353252870836421</v>
       </c>
       <c r="D60">
-        <v>0.05940442213994673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04111409774970842</v>
+      </c>
+      <c r="E60">
+        <v>-0.009033315682835399</v>
+      </c>
+      <c r="F60">
+        <v>-0.005164871844098034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09542364566860136</v>
+        <v>0.08030851914240524</v>
       </c>
       <c r="C61">
-        <v>0.01732945976509195</v>
+        <v>-0.01110531933600804</v>
       </c>
       <c r="D61">
-        <v>0.09610235007241358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178798502250434</v>
+      </c>
+      <c r="E61">
+        <v>-0.03933812171794306</v>
+      </c>
+      <c r="F61">
+        <v>0.01376023935037407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1734274708776221</v>
+        <v>0.1696012236349915</v>
       </c>
       <c r="C62">
-        <v>0.01681556163909058</v>
+        <v>-0.02050375012243606</v>
       </c>
       <c r="D62">
-        <v>0.009294898776072839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005654771997211511</v>
+      </c>
+      <c r="E62">
+        <v>-0.03377961144134987</v>
+      </c>
+      <c r="F62">
+        <v>0.03594673131424186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04641592046323635</v>
+        <v>0.04575601825101539</v>
       </c>
       <c r="C63">
-        <v>0.006128047200907092</v>
+        <v>-0.001602170627328706</v>
       </c>
       <c r="D63">
-        <v>0.03952451990829638</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0592363120795727</v>
+      </c>
+      <c r="E63">
+        <v>-0.02335353235582818</v>
+      </c>
+      <c r="F63">
+        <v>0.00357772447793595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1032922523026375</v>
+        <v>0.1104907999609131</v>
       </c>
       <c r="C64">
-        <v>0.01409486338304505</v>
+        <v>-0.01131041515552382</v>
       </c>
       <c r="D64">
-        <v>0.01980866561070119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04323727178045347</v>
+      </c>
+      <c r="E64">
+        <v>-0.02220294180982654</v>
+      </c>
+      <c r="F64">
+        <v>0.0255485701777358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1287547492038391</v>
+        <v>0.1501429796771907</v>
       </c>
       <c r="C65">
-        <v>0.03107083222776371</v>
+        <v>-0.03383774081235109</v>
       </c>
       <c r="D65">
-        <v>-0.03210850003338022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04369460392645695</v>
+      </c>
+      <c r="E65">
+        <v>-0.006416205876364684</v>
+      </c>
+      <c r="F65">
+        <v>0.03853138841056616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1512463370076293</v>
+        <v>0.1237587508760863</v>
       </c>
       <c r="C66">
-        <v>0.02016468334704894</v>
+        <v>-0.01326665444297438</v>
       </c>
       <c r="D66">
-        <v>0.123236825726503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434743433954385</v>
+      </c>
+      <c r="E66">
+        <v>-0.06561711232912897</v>
+      </c>
+      <c r="F66">
+        <v>0.03448953465339969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0638078424915567</v>
+        <v>0.05752673878870269</v>
       </c>
       <c r="C67">
-        <v>0.005149476318260711</v>
+        <v>-0.002756545849451346</v>
       </c>
       <c r="D67">
-        <v>0.05924645013587691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05580401040454233</v>
+      </c>
+      <c r="E67">
+        <v>-0.01633505976307002</v>
+      </c>
+      <c r="F67">
+        <v>-0.03106534068313013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1048320835067017</v>
+        <v>0.1163991627068935</v>
       </c>
       <c r="C68">
-        <v>0.01398310657172231</v>
+        <v>-0.03285488498985931</v>
       </c>
       <c r="D68">
-        <v>-0.267644515908255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609396854132066</v>
+      </c>
+      <c r="E68">
+        <v>0.08696574898005176</v>
+      </c>
+      <c r="F68">
+        <v>0.003315891159952248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04090049769391516</v>
+        <v>0.0391151796528025</v>
       </c>
       <c r="C69">
-        <v>0.0004618065466587184</v>
+        <v>-0.00111112507703873</v>
       </c>
       <c r="D69">
-        <v>0.0108896444217651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008529882906264588</v>
+      </c>
+      <c r="E69">
+        <v>-0.02393351024715196</v>
+      </c>
+      <c r="F69">
+        <v>0.0006314959544540039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06302265194638475</v>
+        <v>0.06678831851217915</v>
       </c>
       <c r="C70">
-        <v>-0.02404272741411377</v>
+        <v>0.02745791309154571</v>
       </c>
       <c r="D70">
-        <v>-0.02367555625542506</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02349407264087286</v>
+      </c>
+      <c r="E70">
+        <v>0.03343779225979497</v>
+      </c>
+      <c r="F70">
+        <v>-0.185570968535212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1183656903402995</v>
+        <v>0.1362987172600661</v>
       </c>
       <c r="C71">
-        <v>0.01784693537838109</v>
+        <v>-0.03723967951228403</v>
       </c>
       <c r="D71">
-        <v>-0.2867173382236172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724442931447917</v>
+      </c>
+      <c r="E71">
+        <v>0.09748337270016125</v>
+      </c>
+      <c r="F71">
+        <v>0.008977171307816226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377643263397144</v>
+        <v>0.1426257124756821</v>
       </c>
       <c r="C72">
-        <v>0.02428501481905312</v>
+        <v>-0.02712026457501283</v>
       </c>
       <c r="D72">
-        <v>0.002621306618453431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003728824721299867</v>
+      </c>
+      <c r="E72">
+        <v>-0.03578224501572418</v>
+      </c>
+      <c r="F72">
+        <v>0.03208747650764831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2005519142625022</v>
+        <v>0.2040851666317695</v>
       </c>
       <c r="C73">
-        <v>0.0118900969969814</v>
+        <v>-0.01278473917664101</v>
       </c>
       <c r="D73">
-        <v>0.01898833773912227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01734330246509643</v>
+      </c>
+      <c r="E73">
+        <v>-0.06333793253911758</v>
+      </c>
+      <c r="F73">
+        <v>0.03742135441129543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0934763550871321</v>
+        <v>0.09496076897707921</v>
       </c>
       <c r="C74">
-        <v>0.01135507303516422</v>
+        <v>-0.01333775251974929</v>
       </c>
       <c r="D74">
-        <v>0.03314539999493142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01691119588527036</v>
+      </c>
+      <c r="E74">
+        <v>-0.04420405377312458</v>
+      </c>
+      <c r="F74">
+        <v>0.05844300773879466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1378889146393401</v>
+        <v>0.1276094698842235</v>
       </c>
       <c r="C75">
-        <v>0.0262274982597691</v>
+        <v>-0.02815656362813899</v>
       </c>
       <c r="D75">
-        <v>0.04071132508428</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03050739247068654</v>
+      </c>
+      <c r="E75">
+        <v>-0.05816990466161273</v>
+      </c>
+      <c r="F75">
+        <v>0.02299088330658426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0717229182027138</v>
+        <v>0.08822953161192411</v>
       </c>
       <c r="C77">
-        <v>0.0158931570786695</v>
+        <v>-0.008003168716251225</v>
       </c>
       <c r="D77">
-        <v>0.09307820218219261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1116263450376841</v>
+      </c>
+      <c r="E77">
+        <v>-0.0385055642955842</v>
+      </c>
+      <c r="F77">
+        <v>0.03551012250810637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1059730983945521</v>
+        <v>0.1011843311127857</v>
       </c>
       <c r="C78">
-        <v>0.04712482673076005</v>
+        <v>-0.03965504340602289</v>
       </c>
       <c r="D78">
-        <v>0.1033200253921148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1128794364177511</v>
+      </c>
+      <c r="E78">
+        <v>-0.07471511108064512</v>
+      </c>
+      <c r="F78">
+        <v>0.04889929703338774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1661771657870589</v>
+        <v>0.1637452291186074</v>
       </c>
       <c r="C79">
-        <v>0.0204093964486958</v>
+        <v>-0.02286400080423133</v>
       </c>
       <c r="D79">
-        <v>0.01343773051055202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01462608411776816</v>
+      </c>
+      <c r="E79">
+        <v>-0.04628232723776114</v>
+      </c>
+      <c r="F79">
+        <v>0.01296093998876972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09103714432355008</v>
+        <v>0.08209899312245918</v>
       </c>
       <c r="C80">
-        <v>0.0005516073654429709</v>
+        <v>0.001092304746102884</v>
       </c>
       <c r="D80">
-        <v>0.0511543936359392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05632742585148145</v>
+      </c>
+      <c r="E80">
+        <v>-0.03583363566752631</v>
+      </c>
+      <c r="F80">
+        <v>-0.02174203050176487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1216847638058476</v>
+        <v>0.1188618568167874</v>
       </c>
       <c r="C81">
-        <v>0.02874896475520806</v>
+        <v>-0.03180682791173035</v>
       </c>
       <c r="D81">
-        <v>0.04772132718742241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01574174599651532</v>
+      </c>
+      <c r="E81">
+        <v>-0.05720261482670163</v>
+      </c>
+      <c r="F81">
+        <v>0.01893410642613667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1653427522995414</v>
+        <v>0.1653403916115192</v>
       </c>
       <c r="C82">
-        <v>0.02031019263382996</v>
+        <v>-0.02480357284126857</v>
       </c>
       <c r="D82">
-        <v>0.03048373816829646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00427836707212355</v>
+      </c>
+      <c r="E82">
+        <v>-0.02640654393830046</v>
+      </c>
+      <c r="F82">
+        <v>0.08188170116470517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07137009771027224</v>
+        <v>0.05830607722443159</v>
       </c>
       <c r="C83">
-        <v>0.005439125014571558</v>
+        <v>-0.00260017822019027</v>
       </c>
       <c r="D83">
-        <v>0.03040470992950676</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.051052037685007</v>
+      </c>
+      <c r="E83">
+        <v>-0.003156795227735784</v>
+      </c>
+      <c r="F83">
+        <v>-0.0305865255605772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07027207940825481</v>
+        <v>0.05984971396453658</v>
       </c>
       <c r="C84">
-        <v>0.01445791087197141</v>
+        <v>-0.01124544458971876</v>
       </c>
       <c r="D84">
-        <v>0.05182699483109651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06333130642895456</v>
+      </c>
+      <c r="E84">
+        <v>-0.007451665708251569</v>
+      </c>
+      <c r="F84">
+        <v>0.005943453666190366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1388301893474795</v>
+        <v>0.1355972588436656</v>
       </c>
       <c r="C85">
-        <v>0.02569209924616756</v>
+        <v>-0.02813766980552988</v>
       </c>
       <c r="D85">
-        <v>0.02120889417074464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009428028006655464</v>
+      </c>
+      <c r="E85">
+        <v>-0.03631711096845171</v>
+      </c>
+      <c r="F85">
+        <v>0.04823695996516265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09939720246225066</v>
+        <v>0.09497731009124906</v>
       </c>
       <c r="C86">
-        <v>-0.002406775050638169</v>
+        <v>0.005515078240491735</v>
       </c>
       <c r="D86">
-        <v>-0.03526696459050876</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04211848615077715</v>
+      </c>
+      <c r="E86">
+        <v>-0.2306620564096807</v>
+      </c>
+      <c r="F86">
+        <v>-0.9036781211000494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1037969009649873</v>
+        <v>0.09429754795070372</v>
       </c>
       <c r="C87">
-        <v>0.02801858802887825</v>
+        <v>-0.01913064353711267</v>
       </c>
       <c r="D87">
-        <v>0.05161147285281045</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09389816756694434</v>
+      </c>
+      <c r="E87">
+        <v>0.05452713981594907</v>
+      </c>
+      <c r="F87">
+        <v>0.04679069324045577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05818252997155088</v>
+        <v>0.06070984009927656</v>
       </c>
       <c r="C88">
-        <v>0.005677121251221241</v>
+        <v>-0.00213926775089564</v>
       </c>
       <c r="D88">
-        <v>0.0466472268443218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04983942750315432</v>
+      </c>
+      <c r="E88">
+        <v>-0.0245448726433318</v>
+      </c>
+      <c r="F88">
+        <v>0.01402611260895869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1188032849091049</v>
+        <v>0.1300426751558956</v>
       </c>
       <c r="C89">
-        <v>-0.003545582560776683</v>
+        <v>-0.01357807685730238</v>
       </c>
       <c r="D89">
-        <v>-0.2798073231479448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2459972128052865</v>
+      </c>
+      <c r="E89">
+        <v>0.08852045547497822</v>
+      </c>
+      <c r="F89">
+        <v>-0.009332515678329571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1319555351487876</v>
+        <v>0.1511692593903332</v>
       </c>
       <c r="C90">
-        <v>0.01472156231489736</v>
+        <v>-0.03406663268235911</v>
       </c>
       <c r="D90">
-        <v>-0.2898946845346792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2712114740261931</v>
+      </c>
+      <c r="E90">
+        <v>0.1137544682217706</v>
+      </c>
+      <c r="F90">
+        <v>-0.008156062633341232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1196730998206407</v>
+        <v>0.1210162003675988</v>
       </c>
       <c r="C91">
-        <v>0.01564964275679637</v>
+        <v>-0.0198177651820448</v>
       </c>
       <c r="D91">
-        <v>-0.001003477141035827</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01528792342065471</v>
+      </c>
+      <c r="E91">
+        <v>-0.0553328569751378</v>
+      </c>
+      <c r="F91">
+        <v>-9.102308717539335e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1433902626430158</v>
+        <v>0.1478669842033725</v>
       </c>
       <c r="C92">
-        <v>0.00274115445247936</v>
+        <v>-0.02474796267497181</v>
       </c>
       <c r="D92">
-        <v>-0.3157264371495599</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913624796973012</v>
+      </c>
+      <c r="E92">
+        <v>0.1014100347927286</v>
+      </c>
+      <c r="F92">
+        <v>-0.01291606926186303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1347196327421897</v>
+        <v>0.1512528142714925</v>
       </c>
       <c r="C93">
-        <v>0.01023644052391261</v>
+        <v>-0.02909231326748088</v>
       </c>
       <c r="D93">
-        <v>-0.2718937941537611</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2673316798418311</v>
+      </c>
+      <c r="E93">
+        <v>0.07851672139623787</v>
+      </c>
+      <c r="F93">
+        <v>0.002846951822381041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.135592824409819</v>
+        <v>0.128283310610001</v>
       </c>
       <c r="C94">
-        <v>0.02359706513599743</v>
+        <v>-0.02446450065107557</v>
       </c>
       <c r="D94">
-        <v>0.05725808951916133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04197006159627149</v>
+      </c>
+      <c r="E94">
+        <v>-0.05736369469874754</v>
+      </c>
+      <c r="F94">
+        <v>0.03656499751733738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1253300735003874</v>
+        <v>0.1266567891325184</v>
       </c>
       <c r="C95">
-        <v>0.009862178956978867</v>
+        <v>-0.003068942550362489</v>
       </c>
       <c r="D95">
-        <v>0.06679071086267543</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09491415743381715</v>
+      </c>
+      <c r="E95">
+        <v>-0.04990274993562662</v>
+      </c>
+      <c r="F95">
+        <v>-0.006200988259105577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.09714743433845752</v>
+        <v>0.1087070907578358</v>
       </c>
       <c r="C96">
-        <v>-0.989783934333152</v>
+        <v>0.9871363270199534</v>
       </c>
       <c r="D96">
-        <v>0.01007421935840492</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05161279508706564</v>
+      </c>
+      <c r="E96">
+        <v>-0.05309166510564416</v>
+      </c>
+      <c r="F96">
+        <v>0.04267017299684303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1861620432463549</v>
+        <v>0.1910331106587126</v>
       </c>
       <c r="C97">
-        <v>-0.009405430197514827</v>
+        <v>0.00691884766617692</v>
       </c>
       <c r="D97">
-        <v>-0.02848307789461478</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01992330644518842</v>
+      </c>
+      <c r="E97">
+        <v>-0.02183164616576761</v>
+      </c>
+      <c r="F97">
+        <v>-0.09433462857823277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948802496901059</v>
+        <v>0.205383795108015</v>
       </c>
       <c r="C98">
-        <v>0.007490303261525683</v>
+        <v>-0.006947956061629831</v>
       </c>
       <c r="D98">
-        <v>-0.005634652420284408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01243393308486803</v>
+      </c>
+      <c r="E98">
+        <v>0.07846757866907533</v>
+      </c>
+      <c r="F98">
+        <v>-0.09378060844620639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05509804323480873</v>
+        <v>0.05480496532709166</v>
       </c>
       <c r="C99">
-        <v>-0.002713552835241753</v>
+        <v>0.004555105104765199</v>
       </c>
       <c r="D99">
-        <v>0.02117448570873829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0394123994698178</v>
+      </c>
+      <c r="E99">
+        <v>-0.02216057909104592</v>
+      </c>
+      <c r="F99">
+        <v>0.002825869969117929</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.137207266365128</v>
+        <v>0.1277843382123987</v>
       </c>
       <c r="C100">
-        <v>-0.03105252598634495</v>
+        <v>0.05370736566589503</v>
       </c>
       <c r="D100">
-        <v>0.3907320852279159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3464520892160311</v>
+      </c>
+      <c r="E100">
+        <v>0.8853968081095404</v>
+      </c>
+      <c r="F100">
+        <v>-0.1590206528345787</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0269903832298133</v>
+        <v>0.02865088593163692</v>
       </c>
       <c r="C101">
-        <v>0.009793173014206251</v>
+        <v>-0.008708419821300474</v>
       </c>
       <c r="D101">
-        <v>0.01560323971673573</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03075660860960303</v>
+      </c>
+      <c r="E101">
+        <v>-0.01326208527239547</v>
+      </c>
+      <c r="F101">
+        <v>-0.01442423954607816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
